--- a/9-Presentations/GSC 2025/1-Data/WG2_Site_GSC_Poster.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_Site_GSC_Poster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/1-Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{85042B44-9D22-4D70-B4AF-BAC59CB3E5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C18933-B3FC-4E70-A0BF-4E6ED1DE6868}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A857504-9C9E-402E-88E1-3E21D64904C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6BDECDA1-C9AC-48C2-BC75-26416D12E82C}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{6BDECDA1-C9AC-48C2-BC75-26416D12E82C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,10 +256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,19 +577,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB85FFE-2AD4-4A91-8B0F-32E0F32C8F1F}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -627,7 +623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -644,7 +640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -661,7 +657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -678,7 +674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -695,7 +691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -712,7 +708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -729,7 +725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -746,7 +742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -763,7 +759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -780,7 +776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -797,7 +793,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -814,7 +810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -831,7 +827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -848,7 +844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -865,7 +861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -882,7 +878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -899,7 +895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -916,21 +912,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -947,7 +943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -964,7 +960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -981,7 +977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -998,7 +994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>

--- a/9-Presentations/GSC 2025/1-Data/WG2_Site_GSC_Poster.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_Site_GSC_Poster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A857504-9C9E-402E-88E1-3E21D64904C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42894C6D-4F23-4F48-9401-F0213F3415D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{6BDECDA1-C9AC-48C2-BC75-26416D12E82C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BDECDA1-C9AC-48C2-BC75-26416D12E82C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>Sampling_Site_Name</t>
-  </si>
-  <si>
     <t>Latitude° N</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>Put-In-Bay</t>
+  </si>
+  <si>
+    <t>PI_name</t>
+  </si>
+  <si>
+    <t>Station</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,27 +591,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>46.670009999999998</v>
@@ -620,15 +620,15 @@
         <v>-90.884294999999995</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>47.121549999999999</v>
@@ -637,15 +637,15 @@
         <v>-88.545580000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>46.776739999999997</v>
@@ -654,15 +654,15 @@
         <v>-88.483090000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>44.751916000000001</v>
@@ -671,15 +671,15 @@
         <v>-79.777751800000004</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>44.14273</v>
@@ -688,15 +688,15 @@
         <v>-77.385729999999995</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>44.974690000000002</v>
@@ -705,15 +705,15 @@
         <v>-85.646770000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3">
         <v>44.765729999999998</v>
@@ -722,15 +722,15 @@
         <v>-85.605779999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>42.468910000000001</v>
@@ -739,15 +739,15 @@
         <v>-82.41095</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>42.47513</v>
@@ -756,15 +756,15 @@
         <v>-81.441479999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
         <v>42.824939999999998</v>
@@ -773,15 +773,15 @@
         <v>-79.567639999999997</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
         <v>41.281170000000003</v>
@@ -790,15 +790,15 @@
         <v>-81.670349999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
         <v>41.515250000000002</v>
@@ -807,15 +807,15 @@
         <v>-81.721530000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4">
         <v>46.664230000000003</v>
@@ -824,15 +824,15 @@
         <v>-82.754599999999996</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4">
         <v>42.471944399999998</v>
@@ -841,15 +841,15 @@
         <v>-82.875</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>44.581519999999998</v>
@@ -858,15 +858,15 @@
         <v>-87.979669999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>42.737571000000003</v>
@@ -875,15 +875,15 @@
         <v>-87.777174000000002</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>43.297260000000001</v>
@@ -892,15 +892,15 @@
         <v>-79.801839999999999</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>43.302370000000003</v>
@@ -909,29 +909,29 @@
         <v>-79.791499999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>41.795189999999998</v>
@@ -940,15 +940,15 @@
         <v>-87.576189999999997</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>44.220610000000001</v>
@@ -957,15 +957,15 @@
         <v>-76.501649999999998</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>42.863100000000003</v>
@@ -974,15 +974,15 @@
         <v>-79.052400000000006</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4">
         <v>46.454450000000001</v>
@@ -991,15 +991,15 @@
         <v>-84.830200000000005</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4">
         <v>46.013069999999999</v>
@@ -1008,15 +1008,15 @@
         <v>-84.830200000000005</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>41.472749999999998</v>
@@ -1025,15 +1025,15 @@
         <v>-82.175200000000004</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
         <v>41.658349000000001</v>
@@ -1042,7 +1042,7 @@
         <v>-82.826087000000001</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/9-Presentations/GSC 2025/1-Data/WG2_Site_GSC_Poster.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_Site_GSC_Poster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/1-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42894C6D-4F23-4F48-9401-F0213F3415D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{42894C6D-4F23-4F48-9401-F0213F3415D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1796C8B7-C97F-4C2E-8B8F-D8A57E262918}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BDECDA1-C9AC-48C2-BC75-26416D12E82C}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6BDECDA1-C9AC-48C2-BC75-26416D12E82C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="59">
   <si>
     <t>Latitude° N</t>
   </si>
@@ -186,13 +186,40 @@
   </si>
   <si>
     <t>Station</t>
+  </si>
+  <si>
+    <t>LH-1A</t>
+  </si>
+  <si>
+    <t>DR-1</t>
+  </si>
+  <si>
+    <t>LH-9A</t>
+  </si>
+  <si>
+    <t>LH10A</t>
+  </si>
+  <si>
+    <t>LHU 04</t>
+  </si>
+  <si>
+    <t>LSU_01</t>
+  </si>
+  <si>
+    <t>SMR 02</t>
+  </si>
+  <si>
+    <t>SMR_03</t>
+  </si>
+  <si>
+    <t>Twiss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +232,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F4528"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBFE0F6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,11 +268,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,6 +278,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB85FFE-2AD4-4A91-8B0F-32E0F32C8F1F}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,463 +637,612 @@
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>46.670009999999998</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-90.884294999999995</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>47.121549999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>-88.545580000000001</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>46.776739999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>-88.483090000000004</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>44.751916000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>-79.777751800000004</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>44.14273</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>-77.385729999999995</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>44.974690000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>-85.646770000000004</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>44.765729999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>-85.605779999999996</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>42.468910000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>-82.41095</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>42.47513</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>-81.441479999999999</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>42.824939999999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>-79.567639999999997</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>41.281170000000003</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>-81.670349999999999</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>41.515250000000002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>-81.721530000000001</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>46.664230000000003</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>-82.754599999999996</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>42.471944399999998</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>-82.875</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>44.581519999999998</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>-87.979669999999999</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>42.737571000000003</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>-87.777174000000002</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>43.297260000000001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-79.801839999999999</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>43.302370000000003</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>-79.791499999999999</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>41.795189999999998</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>-87.576189999999997</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>44.220610000000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>-76.501649999999998</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>42.863100000000003</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>-79.052400000000006</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>46.454450000000001</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>-84.830200000000005</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>46.013069999999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>-84.830200000000005</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>41.472749999999998</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>-82.175200000000004</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>41.658349000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>-82.826087000000001</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="6">
+        <v>43.089300000000001</v>
+      </c>
+      <c r="D29" s="6">
+        <v>-82.412300000000002</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6">
+        <v>42.351483000000002</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-82.935167000000007</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="6">
+        <v>43.456829999999997</v>
+      </c>
+      <c r="D31" s="6">
+        <v>-82.251166999999995</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43.741950000000003</v>
+      </c>
+      <c r="D32" s="6">
+        <v>-81.834582999999995</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="6">
+        <v>46.289400000000001</v>
+      </c>
+      <c r="D33" s="6">
+        <v>-83.793000000000006</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="6">
+        <v>46.529167000000001</v>
+      </c>
+      <c r="D34" s="6">
+        <v>-84.586116700000005</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="6">
+        <v>46.501389000000003</v>
+      </c>
+      <c r="D35" s="6">
+        <v>-84.346890000000002</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="6">
+        <v>46.502499999999998</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-84.320830000000001</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
